--- a/7_ Hypotheses/Chi^2 and ANOVA.xlsx
+++ b/7_ Hypotheses/Chi^2 and ANOVA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73941F91-5A95-4347-92E7-6212407D9DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836C1E3D-F0B4-4A6F-BAC6-8513A03DCC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chi^2" sheetId="2" r:id="rId1"/>
-    <sheet name="oneway-anova" sheetId="1" r:id="rId2"/>
+    <sheet name="chi^2-additional" sheetId="3" r:id="rId2"/>
+    <sheet name="oneway-anova" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Group 1</t>
   </si>
@@ -156,6 +157,39 @@
   </si>
   <si>
     <t>Chi^2-val</t>
+  </si>
+  <si>
+    <t>transposed:</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Obs-Exp</t>
+  </si>
+  <si>
+    <t>(Obs-Exp)^2</t>
+  </si>
+  <si>
+    <t>(Obs-Exp)^2 / Exp</t>
+  </si>
+  <si>
+    <t>Sum(Chi^2)</t>
+  </si>
+  <si>
+    <t>DF (Number of categories -1)</t>
+  </si>
+  <si>
+    <t>Critical-Value (alpha-5%):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H0 can be rejected</t>
   </si>
 </sst>
 </file>
@@ -179,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -310,6 +350,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -592,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,11 +1556,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCC49E-8820-412B-8B35-9FFDC8A8E363}">
+  <dimension ref="B3:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16">
+        <f>AVERAGE($C$4:$C$7)</f>
+        <v>8</v>
+      </c>
+      <c r="E4" s="16">
+        <f>C4-D4</f>
+        <v>-3</v>
+      </c>
+      <c r="F4" s="16">
+        <f>E4^2</f>
+        <v>9</v>
+      </c>
+      <c r="G4" s="16">
+        <f>F4/D4</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
+        <v>17</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" ref="D5:D7" si="0">AVERAGE($C$4:$C$7)</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" ref="E5:E7" si="1">C5-D5</f>
+        <v>9</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" ref="F5:F7" si="2">E5^2</f>
+        <v>81</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" ref="G5:G7" si="3">F5/D5</f>
+        <v>10.125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>7</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="3"/>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="19">
+        <f>SUM(G4:G7)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="19">
+        <v>7.8150000000000004</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,6 +2392,9 @@
         <f>D16/D17</f>
         <v>0.28372612759041133</v>
       </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
